--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt9a</t>
   </si>
   <si>
     <t>Fzd4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.5211484514452</v>
+        <v>0.1496866666666667</v>
       </c>
       <c r="H2">
-        <v>3.5211484514452</v>
+        <v>0.44906</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03437062495625315</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03557416678252472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.9281581961482</v>
+        <v>29.22839533333334</v>
       </c>
       <c r="N2">
-        <v>28.9281581961482</v>
+        <v>87.685186</v>
       </c>
       <c r="O2">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="P2">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
       <c r="Q2">
-        <v>101.860339435529</v>
+        <v>4.375101069462223</v>
       </c>
       <c r="R2">
-        <v>101.860339435529</v>
+        <v>39.37590962516</v>
       </c>
       <c r="S2">
-        <v>0.4526276018723345</v>
+        <v>0.01530221920006082</v>
       </c>
       <c r="T2">
-        <v>0.4526276018723345</v>
+        <v>0.01774626554918404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.5211484514452</v>
+        <v>0.1496866666666667</v>
       </c>
       <c r="H3">
-        <v>3.5211484514452</v>
+        <v>0.44906</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03437062495625315</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03557416678252472</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.4396887939057</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>14.4396887939057</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="P3">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
       <c r="Q3">
-        <v>50.84428783601167</v>
+        <v>2.281877334075556</v>
       </c>
       <c r="R3">
-        <v>50.84428783601167</v>
+        <v>20.53689600668</v>
       </c>
       <c r="S3">
-        <v>0.2259321753653367</v>
+        <v>0.007981024117910625</v>
       </c>
       <c r="T3">
-        <v>0.2259321753653367</v>
+        <v>0.009255740719641588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.1496866666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.44906</v>
+      </c>
+      <c r="I4">
+        <v>0.03437062495625315</v>
+      </c>
+      <c r="J4">
+        <v>0.03557416678252472</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>21.177737</v>
+      </c>
+      <c r="N4">
+        <v>42.355474</v>
+      </c>
+      <c r="O4">
+        <v>0.3225830677328006</v>
+      </c>
+      <c r="P4">
+        <v>0.2409658830831714</v>
+      </c>
+      <c r="Q4">
+        <v>3.170024859073334</v>
+      </c>
+      <c r="R4">
+        <v>19.02014915444</v>
+      </c>
+      <c r="S4">
+        <v>0.0110873816382817</v>
+      </c>
+      <c r="T4">
+        <v>0.008572160513699091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.763367333333334</v>
+      </c>
+      <c r="H5">
+        <v>11.290102</v>
+      </c>
+      <c r="I5">
+        <v>0.8641336604459173</v>
+      </c>
+      <c r="J5">
+        <v>0.8943926681060793</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>29.22839533333334</v>
+      </c>
+      <c r="N5">
+        <v>87.685186</v>
+      </c>
+      <c r="O5">
+        <v>0.4452121315669252</v>
+      </c>
+      <c r="P5">
+        <v>0.4988525987881078</v>
+      </c>
+      <c r="Q5">
+        <v>109.9971882032191</v>
+      </c>
+      <c r="R5">
+        <v>989.9746938289721</v>
+      </c>
+      <c r="S5">
+        <v>0.3847227889258564</v>
+      </c>
+      <c r="T5">
+        <v>0.4461701068217473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.763367333333334</v>
+      </c>
+      <c r="H6">
+        <v>11.290102</v>
+      </c>
+      <c r="I6">
+        <v>0.8641336604459173</v>
+      </c>
+      <c r="J6">
+        <v>0.8943926681060793</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.24435933333334</v>
+      </c>
+      <c r="N6">
+        <v>45.73307800000001</v>
+      </c>
+      <c r="O6">
+        <v>0.232204800700274</v>
+      </c>
+      <c r="P6">
+        <v>0.2601815181287206</v>
+      </c>
+      <c r="Q6">
+        <v>57.37012393266179</v>
+      </c>
+      <c r="R6">
+        <v>516.3311153939561</v>
+      </c>
+      <c r="S6">
+        <v>0.2006559844022425</v>
+      </c>
+      <c r="T6">
+        <v>0.2327044421910367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.763367333333334</v>
+      </c>
+      <c r="H7">
+        <v>11.290102</v>
+      </c>
+      <c r="I7">
+        <v>0.8641336604459173</v>
+      </c>
+      <c r="J7">
+        <v>0.8943926681060793</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>21.177737</v>
+      </c>
+      <c r="N7">
+        <v>42.355474</v>
+      </c>
+      <c r="O7">
+        <v>0.3225830677328006</v>
+      </c>
+      <c r="P7">
+        <v>0.2409658830831714</v>
+      </c>
+      <c r="Q7">
+        <v>79.69960361972467</v>
+      </c>
+      <c r="R7">
+        <v>478.197621718348</v>
+      </c>
+      <c r="S7">
+        <v>0.2787548871178183</v>
+      </c>
+      <c r="T7">
+        <v>0.2155181190932952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3.5211484514452</v>
-      </c>
-      <c r="H4">
-        <v>3.5211484514452</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>20.5437617507394</v>
-      </c>
-      <c r="N4">
-        <v>20.5437617507394</v>
-      </c>
-      <c r="O4">
-        <v>0.3214402227623288</v>
-      </c>
-      <c r="P4">
-        <v>0.3214402227623288</v>
-      </c>
-      <c r="Q4">
-        <v>72.33763487547517</v>
-      </c>
-      <c r="R4">
-        <v>72.33763487547517</v>
-      </c>
-      <c r="S4">
-        <v>0.3214402227623288</v>
-      </c>
-      <c r="T4">
-        <v>0.3214402227623288</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.4420215</v>
+      </c>
+      <c r="H8">
+        <v>0.884043</v>
+      </c>
+      <c r="I8">
+        <v>0.1014957145978296</v>
+      </c>
+      <c r="J8">
+        <v>0.07003316511139604</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>29.22839533333334</v>
+      </c>
+      <c r="N8">
+        <v>87.685186</v>
+      </c>
+      <c r="O8">
+        <v>0.4452121315669252</v>
+      </c>
+      <c r="P8">
+        <v>0.4988525987881078</v>
+      </c>
+      <c r="Q8">
+        <v>12.919579147833</v>
+      </c>
+      <c r="R8">
+        <v>77.517474886998</v>
+      </c>
+      <c r="S8">
+        <v>0.045187123441008</v>
+      </c>
+      <c r="T8">
+        <v>0.03493622641717656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.4420215</v>
+      </c>
+      <c r="H9">
+        <v>0.884043</v>
+      </c>
+      <c r="I9">
+        <v>0.1014957145978296</v>
+      </c>
+      <c r="J9">
+        <v>0.07003316511139604</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.24435933333334</v>
+      </c>
+      <c r="N9">
+        <v>45.73307800000001</v>
+      </c>
+      <c r="O9">
+        <v>0.232204800700274</v>
+      </c>
+      <c r="P9">
+        <v>0.2601815181287206</v>
+      </c>
+      <c r="Q9">
+        <v>6.738334579059001</v>
+      </c>
+      <c r="R9">
+        <v>40.43000747435401</v>
+      </c>
+      <c r="S9">
+        <v>0.02356779218012091</v>
+      </c>
+      <c r="T9">
+        <v>0.01822133521804237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.4420215</v>
+      </c>
+      <c r="H10">
+        <v>0.884043</v>
+      </c>
+      <c r="I10">
+        <v>0.1014957145978296</v>
+      </c>
+      <c r="J10">
+        <v>0.07003316511139604</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.177737</v>
+      </c>
+      <c r="N10">
+        <v>42.355474</v>
+      </c>
+      <c r="O10">
+        <v>0.3225830677328006</v>
+      </c>
+      <c r="P10">
+        <v>0.2409658830831714</v>
+      </c>
+      <c r="Q10">
+        <v>9.361015075345501</v>
+      </c>
+      <c r="R10">
+        <v>37.444060301382</v>
+      </c>
+      <c r="S10">
+        <v>0.03274079897670066</v>
+      </c>
+      <c r="T10">
+        <v>0.01687560347617709</v>
       </c>
     </row>
   </sheetData>
